--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00BC585-9A58-4186-94A4-90638FAEC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67960761-A7C7-4EFD-9B77-BFEEEB08ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="2540" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="1770" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -651,14 +651,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="23">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -683,23 +684,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -858,9 +842,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1135,7 +1119,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1501,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>5</v>
@@ -2221,8 +2205,8 @@
       <c r="I32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>5</v>
+      <c r="J32" s="9">
+        <v>1</v>
       </c>
       <c r="K32" s="10" t="str">
         <f t="shared" ref="K32:K35" si="3">IF(OR(AND(I32&gt;1,I32&lt;&gt;"-"),AND(J32&gt;1,J32&lt;&gt;"-")),"Can exchange","")</f>
@@ -2340,11 +2324,28 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="I21 I3:I15">
-    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I15 I21">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="containsText" dxfId="21" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2356,12 +2357,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="containsText" dxfId="23" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2373,13 +2374,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2390,13 +2391,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="21" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2407,12 +2408,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="20" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2424,13 +2425,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="19" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2441,13 +2442,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="16" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2458,13 +2459,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2475,12 +2476,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2492,13 +2493,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2509,12 +2510,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2526,13 +2527,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="colorScale" priority="20">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2543,12 +2544,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2560,12 +2561,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2577,29 +2578,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2611,12 +2595,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2628,12 +2612,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2645,12 +2629,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2662,12 +2646,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2693,7 +2677,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67960761-A7C7-4EFD-9B77-BFEEEB08ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F196AD2-00FB-4C7B-9E16-BB35BE7BEF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="1770" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
   <si>
     <t>Year</t>
   </si>
@@ -324,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -388,6 +388,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -551,7 +558,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -645,13 +652,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -842,9 +884,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1119,7 +1161,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2267,14 +2309,14 @@
       <c r="G34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="8">
         <v>155000</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>5</v>
+      <c r="J34" s="35">
+        <v>0</v>
       </c>
       <c r="K34" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2301,14 +2343,14 @@
       <c r="G35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="8">
         <v>130000</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>5</v>
+      <c r="J35" s="35">
+        <v>0</v>
       </c>
       <c r="K35" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2323,13 +2365,13 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I21 I3:I15">
-    <cfRule type="containsText" dxfId="22" priority="69" operator="containsText" text="*-">
+  <conditionalFormatting sqref="I21 I3:I14">
+    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I15 I21">
-    <cfRule type="colorScale" priority="70">
+  <conditionalFormatting sqref="I3:I14 I21">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2341,11 +2383,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="containsText" dxfId="21" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="23" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2357,13 +2433,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="containsText" dxfId="20" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2374,13 +2450,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="19" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2391,13 +2467,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2408,13 +2484,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2425,13 +2501,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="42">
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2442,12 +2518,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2459,12 +2535,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="14" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
+  <conditionalFormatting sqref="I35">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2476,12 +2552,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="13" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2493,12 +2569,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2510,12 +2603,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2527,46 +2620,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2578,12 +2637,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2595,12 +2671,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2612,12 +2688,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2629,29 +2705,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2677,7 +2736,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F196AD2-00FB-4C7B-9E16-BB35BE7BEF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE367E9-E9F6-4C26-A18B-16FC383EA38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{52428FB7-C178-4620-AD87-802031B6B643}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{52428FB7-C178-4620-AD87-802031B6B643}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{7EAEAEC7-554A-4434-94F2-D46346D4CD44}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{7EAEAEC7-554A-4434-94F2-D46346D4CD44}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{BDEC5EB1-31D1-41A0-AA65-FD2FEB9C787A}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{BDEC5EB1-31D1-41A0-AA65-FD2FEB9C787A}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E2A9809C-8D69-4338-9440-4B673A4B7F2C}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{E2A9809C-8D69-4338-9440-4B673A4B7F2C}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>Mintage</t>
-  </si>
-  <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
   </si>
   <si>
     <t>-</t>
@@ -308,13 +302,37 @@
     <t>Obv: Mint director symbol - Aster flower</t>
   </si>
   <si>
-    <t>Subtype_3</t>
-  </si>
-  <si>
     <t>Subtype_4</t>
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_A</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol_B</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -324,7 +342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,6 +410,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -535,19 +560,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -558,7 +583,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -625,19 +650,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -646,14 +668,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -661,7 +689,16 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="32">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -695,13 +732,44 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -884,9 +952,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1155,1204 +1223,1250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="5" width="24.7265625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" style="11" customWidth="1"/>
-    <col min="7" max="8" width="12.453125" style="11" customWidth="1"/>
-    <col min="9" max="10" width="3.81640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="7" width="24.81640625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="12.453125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="3.81640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32">
+        <v>2</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33">
-        <v>2</v>
-      </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>2005</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8">
         <v>6000000</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="I3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="10" t="str">
-        <f>IF(OR(AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="str">
+        <f>IF(OR(AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2006</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8">
         <v>5000000</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="I4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="10" t="str">
-        <f t="shared" ref="K4:K11" si="0">IF(OR(AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="10" t="str">
+        <f t="shared" ref="L4:L11" si="0">IF(OR(AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>2007</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8">
+        <v>69</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8">
         <v>5000000</v>
       </c>
-      <c r="H5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="I5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
         <v>0</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="10" t="str">
+      <c r="K5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>2008</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8">
         <v>5000000</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="I6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
         <v>1</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>2009</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8">
         <v>5011000</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="I7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>2009</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8">
         <v>5000000</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="I8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>2010</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8">
+      <c r="G9" s="7"/>
+      <c r="H9" s="8">
         <v>5000000</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="I9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>2011</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
         <v>5000000</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="I10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
         <v>1</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>2012</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8">
+      <c r="G11" s="7"/>
+      <c r="H11" s="8">
         <v>5000000</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="I11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>2012</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8">
+      <c r="G12" s="7"/>
+      <c r="H12" s="8">
         <v>5000000</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="I12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
         <v>1</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="10" t="str">
-        <f>IF(OR(AND(I12&gt;1,I12&lt;&gt;"-"),AND(J12&gt;1,J12&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="10" t="str">
+        <f>IF(OR(AND(J12&gt;1,J12&lt;&gt;"-"),AND(K12&gt;1,K12&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>2013</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8">
+        <v>27</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8">
         <v>2020000</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="I13" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="9">
         <v>0</v>
       </c>
-      <c r="J13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="10" t="str">
-        <f t="shared" ref="K13:K29" si="1">IF(OR(AND(I13&gt;1,I13&lt;&gt;"-"),AND(J13&gt;1,J13&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="10" t="str">
+        <f t="shared" ref="L13:L29" si="1">IF(OR(AND(J13&gt;1,J13&lt;&gt;"-"),AND(K13&gt;1,K13&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>2014</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8">
+        <v>28</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8">
         <v>1750000</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="I14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="10" t="str">
+      <c r="K14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>2014</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
-        <v>287500</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="9">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8">
+        <v>257500</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="26">
         <v>0</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="10" t="str">
+      <c r="K15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>2014</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="21">
+      <c r="H16" s="21">
         <v>20000</v>
       </c>
-      <c r="H16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>5</v>
+      <c r="I16" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>2014</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="21">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="21">
         <v>10000</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>5</v>
+      <c r="I17" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>2015</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="21">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="21">
         <v>235000</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="10" t="str">
+      <c r="I18" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
+        <v>72</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8">
         <v>412500</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="I19" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="9">
         <v>1</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="10" t="str">
+      <c r="K19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>2016</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="21">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="21">
         <v>325000</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="10" t="str">
+      <c r="I20" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>2016</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8">
         <v>1020000</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="I21" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="9">
         <v>1</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="10" t="str">
+      <c r="K21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>2017</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="21">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="21">
         <v>200000</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="10" t="str">
+      <c r="I22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>2017</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="21">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="21">
         <v>200000</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="10" t="str">
+      <c r="I23" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>2018</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="21">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="21">
         <v>257500</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="J24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>2018</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="21">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="21">
         <v>257500</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="J25" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" s="27">
         <v>1</v>
       </c>
-      <c r="K25" s="10" t="str">
+      <c r="L25" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>2019</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="F26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="21">
         <v>155000</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="J26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>2019</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="21">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="21">
         <v>155000</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="J27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K27" s="26">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>2020</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="9">
+      <c r="J28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="9">
         <v>1</v>
       </c>
-      <c r="K28" s="10" t="str">
+      <c r="L28" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>2020</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="21">
+        <v>61</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="21">
         <v>155000</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K29" s="26">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <v>2021</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="21">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" s="21">
         <v>155000</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="J30" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="10" t="str">
-        <f t="shared" ref="K30:K31" si="2">IF(OR(AND(I30&gt;1,I30&lt;&gt;"-"),AND(J30&gt;1,J30&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="K30" s="26">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10" t="str">
+        <f t="shared" ref="L30:L31" si="2">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>2021</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="21">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="21">
         <v>155000</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="J31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="10" t="str">
+        <v>3</v>
+      </c>
+      <c r="K31" s="26">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>2022</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="8">
+        <v>73</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="8">
         <v>2155000</v>
       </c>
-      <c r="I32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="J32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="9">
         <v>1</v>
       </c>
-      <c r="K32" s="10" t="str">
-        <f t="shared" ref="K32:K35" si="3">IF(OR(AND(I32&gt;1,I32&lt;&gt;"-"),AND(J32&gt;1,J32&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="10" t="str">
+        <f t="shared" ref="L32:L35" si="3">IF(OR(AND(J32&gt;1,J32&lt;&gt;"-"),AND(K32&gt;1,K32&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="8">
+        <v>57</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="8">
         <v>1000000</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="J33" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="9">
         <v>1</v>
       </c>
-      <c r="K33" s="10" t="str">
+      <c r="L33" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <v>2023</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="8">
+        <v>55</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="21">
         <v>155000</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="35">
+      <c r="J34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="26">
         <v>0</v>
       </c>
-      <c r="K34" s="10" t="str">
+      <c r="L34" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>2023</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8">
+        <v>56</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" s="21">
         <v>130000</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="35">
+      <c r="J35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="26">
         <v>0</v>
       </c>
-      <c r="K35" s="10" t="str">
+      <c r="L35" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2361,17 +2475,17 @@
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I21 I3:I14">
-    <cfRule type="containsText" dxfId="26" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I14 I21">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="J21 J3:J14">
+    <cfRule type="containsText" dxfId="31" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J14 J21">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2382,13 +2496,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="containsText" dxfId="25" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I20">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="30" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2399,13 +2513,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="containsText" dxfId="24" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I27 J3:J27 J29">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
+    <cfRule type="containsText" dxfId="29" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2416,12 +2530,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
-    <cfRule type="containsText" dxfId="23" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29">
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="28" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="26" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2433,29 +2615,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="21" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2467,13 +2632,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2484,13 +2649,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="19" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="21" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2501,13 +2666,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="containsText" dxfId="18" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2518,13 +2683,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="colorScale" priority="38">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2535,12 +2700,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2552,12 +2751,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2569,13 +2768,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="K35">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2586,29 +2785,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="13" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2620,12 +2802,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2637,12 +2870,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+  <conditionalFormatting sqref="K24">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2654,12 +2887,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="K26">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2671,12 +2904,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K27">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2688,12 +2921,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="K29">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2705,12 +2938,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
+  <conditionalFormatting sqref="K30">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2736,7 +2986,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2748,13 +2998,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2762,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2773,10 +3023,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2784,10 +3034,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2795,10 +3045,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2806,10 +3056,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2817,10 +3067,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE367E9-E9F6-4C26-A18B-16FC383EA38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB2366C-38BC-408A-841F-4B494811A537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -689,7 +689,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -952,9 +968,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1223,13 +1239,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2362,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="10" t="str">
-        <f t="shared" ref="L32:L35" si="3">IF(OR(AND(J32&gt;1,J32&lt;&gt;"-"),AND(K32&gt;1,K32&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L32:L36" si="3">IF(OR(AND(J32&gt;1,J32&lt;&gt;"-"),AND(K32&gt;1,K32&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2467,6 +2483,39 @@
         <v>0</v>
       </c>
       <c r="L35" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2480,11 +2529,45 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J21 J3:J14">
+    <cfRule type="containsText" dxfId="33" priority="103" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J14 J21">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="32" priority="101" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
     <cfRule type="containsText" dxfId="31" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J14 J21">
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2496,13 +2579,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="30" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="30" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2513,29 +2596,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="containsText" dxfId="29" priority="95" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="28" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2547,13 +2613,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="27" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="colorScale" priority="86">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="28" priority="87" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2564,13 +2630,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="26" priority="83" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="84">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2581,12 +2647,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="25" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="26" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2598,13 +2664,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="24" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2615,13 +2681,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="23" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="24" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2632,13 +2698,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2649,13 +2715,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="21" priority="53" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="22" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2666,12 +2732,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="20" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2683,13 +2749,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2700,12 +2766,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2717,12 +2800,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2734,12 +2817,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K35">
     <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2751,13 +2834,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2768,13 +2851,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2785,12 +2868,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2802,12 +2885,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2819,12 +2902,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2836,12 +2919,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K24">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2853,12 +2936,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K26">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2870,12 +2953,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2887,12 +2970,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="K29">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2904,12 +2987,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2921,12 +3004,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2938,12 +3021,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J36">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2955,12 +3038,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="K36">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB2366C-38BC-408A-841F-4B494811A537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52874BB-94CB-47FC-95EF-C6C555CAFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="1450" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -270,9 +270,6 @@
   <si>
     <t>Obv: With mint symbol - 
 Staff of Mercury</t>
-  </si>
-  <si>
-    <t>755.000</t>
   </si>
   <si>
     <t>NL</t>
@@ -691,6 +688,15 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -705,15 +711,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -968,9 +965,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1245,7 +1242,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1265,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>1</v>
@@ -1288,31 +1285,31 @@
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1394,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>44</v>
@@ -1502,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>44</v>
@@ -1642,7 +1639,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -1896,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>44</v>
@@ -2226,8 +2223,8 @@
       <c r="H28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>53</v>
+      <c r="I28" s="8">
+        <v>755000</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>3</v>
@@ -2245,7 +2242,7 @@
         <v>2020</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
@@ -2280,7 +2277,7 @@
         <v>2021</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7" t="s">
@@ -2315,7 +2312,7 @@
         <v>2021</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7" t="s">
@@ -2350,10 +2347,10 @@
         <v>2022</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>52</v>
@@ -2387,7 +2384,7 @@
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
@@ -2422,7 +2419,7 @@
         <v>2023</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7" t="s">
@@ -2432,7 +2429,7 @@
         <v>39</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="25" t="s">
@@ -2457,7 +2454,7 @@
         <v>2023</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
@@ -2467,7 +2464,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="25" t="s">
@@ -2502,13 +2499,15 @@
         <v>39</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="21">
+        <v>155000</v>
+      </c>
       <c r="J36" s="9" t="s">
         <v>3</v>
       </c>
@@ -3022,7 +3021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3039,7 +3038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52874BB-94CB-47FC-95EF-C6C555CAFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA8BC2-EC9F-4AB0-89E5-A77970C9492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1410,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>3</v>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FA8BC2-EC9F-4AB0-89E5-A77970C9492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792C7CF-5EC0-4BAC-8D15-91EA7F901148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,7 +1242,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>3</v>
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>3</v>
@@ -1947,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>3</v>
@@ -2017,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>3</v>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8792C7CF-5EC0-4BAC-8D15-91EA7F901148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A1979-4AC1-492A-A23F-C8F0CCD264EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="74">
   <si>
     <t>Year</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Fight Against Cancer in Belgium</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -965,9 +984,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1236,13 +1255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2052,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>3</v>
@@ -2090,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="K24" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2160,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2195,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2265,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="K29" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="10" t="str">
         <f t="shared" si="1"/>
@@ -2300,7 +2319,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="10" t="str">
         <f t="shared" ref="L30:L31" si="2">IF(OR(AND(J30&gt;1,J30&lt;&gt;"-"),AND(K30&gt;1,K30&lt;&gt;"-")),"Can exchange","")</f>
@@ -2335,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="10" t="str">
         <f t="shared" si="2"/>
@@ -2442,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="K34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2477,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2512,10 +2531,45 @@
         <v>3</v>
       </c>
       <c r="K36" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="10" t="str">
         <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="19">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="21">
+        <v>130000</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="26">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10" t="str">
+        <f t="shared" ref="L37" si="4">IF(OR(AND(J37&gt;1,J37&lt;&gt;"-"),AND(K37&gt;1,K37&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2528,11 +2582,45 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J21 J3:J14">
+    <cfRule type="containsText" dxfId="35" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J14 J21">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="34" priority="105" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
     <cfRule type="containsText" dxfId="33" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J14 J21">
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2544,13 +2632,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="32" priority="101" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="colorScale" priority="102">
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="32" priority="97" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2561,29 +2649,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="containsText" dxfId="31" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="30" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2595,13 +2666,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="29" priority="89" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="J28">
+    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2612,13 +2683,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="28" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2629,12 +2700,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="28" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2646,13 +2717,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="26" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2663,13 +2734,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="26" priority="67" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2680,13 +2751,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="24" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2697,13 +2768,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="24" priority="59" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2714,12 +2785,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="22" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2731,13 +2802,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="colorScale" priority="52">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2748,12 +2819,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2765,12 +2853,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2782,12 +2870,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K35">
     <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2799,13 +2887,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2816,13 +2904,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2833,12 +2921,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2850,12 +2938,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2867,12 +2955,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2884,12 +2972,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K24">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2901,12 +2989,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K26">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2918,12 +3006,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2935,12 +3023,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="K29">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2952,12 +3040,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2969,12 +3057,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2986,12 +3074,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J36">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3003,12 +3091,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="K36">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3020,12 +3108,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3037,12 +3125,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A1979-4AC1-492A-A23F-C8F0CCD264EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428146C8-BB44-49B1-AFA4-03D7CF305C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="H2" authorId="0" shapeId="0" xr:uid="{52428FB7-C178-4620-AD87-802031B6B643}">
@@ -104,6 +105,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{0AFE9FAC-CEBF-40B7-81D2-9AB6F7F98D60}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Дубли не UNC
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -342,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -418,6 +434,13 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -583,7 +606,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -683,13 +706,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -699,6 +725,15 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -707,13 +742,12 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -984,9 +1018,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1261,7 +1295,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1642,15 +1676,15 @@
       <c r="I11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="9">
-        <v>1</v>
+      <c r="J11" s="37">
+        <v>2</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="L11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2581,12 +2615,29 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J21 J3:J14">
+  <conditionalFormatting sqref="J21 J3:J10 J12:J14">
+    <cfRule type="containsText" dxfId="36" priority="109" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J10 J21 J12:J14">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="containsText" dxfId="35" priority="107" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J14 J21">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2598,12 +2649,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
     <cfRule type="containsText" dxfId="34" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2615,13 +2666,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="containsText" dxfId="33" priority="103" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="colorScale" priority="104">
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="33" priority="99" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2632,13 +2683,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="32" priority="97" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="98">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2649,12 +2700,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+  <conditionalFormatting sqref="J28">
     <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2666,13 +2717,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="J31">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2683,13 +2734,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="29" priority="79" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2700,13 +2751,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="28" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="28" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2717,12 +2768,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J32">
     <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2734,13 +2785,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="26" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2751,12 +2802,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="J34">
     <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2768,13 +2819,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="24" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="colorScale" priority="60">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2785,13 +2836,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="23" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="23" priority="45" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2802,12 +2853,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="J17">
     <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2819,12 +2870,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="K32">
     <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2836,12 +2887,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+  <conditionalFormatting sqref="K34">
     <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2853,12 +2904,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="K35">
     <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2870,13 +2921,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2887,12 +2938,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="J18">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2904,12 +2955,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="J20">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2921,12 +2972,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="J22">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2938,12 +2989,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2955,12 +3006,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K24">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2972,12 +3023,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K26">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2989,12 +3040,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3006,12 +3057,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="K29">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3023,12 +3074,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3040,12 +3091,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3057,12 +3108,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="J36">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3074,12 +3125,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="K36">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3091,12 +3142,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="J37">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3108,12 +3159,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="K37">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3125,12 +3176,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428146C8-BB44-49B1-AFA4-03D7CF305C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54B95A-57E0-49CC-8213-55022BCDE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="1200" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="75">
   <si>
     <t>Year</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Fight Against Cancer in Belgium</t>
+  </si>
+  <si>
+    <t>National Lottery</t>
   </si>
 </sst>
 </file>
@@ -679,6 +682,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,16 +712,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -732,6 +759,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1018,9 +1053,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1289,13 +1324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1311,32 +1346,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33">
         <v>2</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1676,7 +1711,7 @@
       <c r="I11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="28">
         <v>2</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -2603,7 +2638,67 @@
         <v>1</v>
       </c>
       <c r="L37" s="10" t="str">
-        <f t="shared" ref="L37" si="4">IF(OR(AND(J37&gt;1,J37&lt;&gt;"-"),AND(K37&gt;1,K37&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="L37:L38" si="4">IF(OR(AND(J37&gt;1,J37&lt;&gt;"-"),AND(K37&gt;1,K37&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1154000</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="26">
+        <v>1</v>
+      </c>
+      <c r="L38" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="26">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="str">
+        <f t="shared" ref="L39" si="5">IF(OR(AND(J39&gt;1,J39&lt;&gt;"-"),AND(K39&gt;1,K39&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -2616,12 +2711,12 @@
     <mergeCell ref="C1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J21 J3:J10 J12:J14">
-    <cfRule type="containsText" dxfId="36" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J10 J21 J12:J14">
-    <cfRule type="colorScale" priority="110">
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2633,11 +2728,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="35" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
+    <cfRule type="containsText" dxfId="38" priority="113" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="containsText" dxfId="37" priority="107" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2649,47 +2778,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="containsText" dxfId="34" priority="105" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27 K3:K23 K25">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="containsText" dxfId="33" priority="99" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="containsText" dxfId="32" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K28))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="colorScale" priority="96">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2701,12 +2796,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="containsText" dxfId="31" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J28))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2718,12 +2813,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J31))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2735,11 +2830,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J30))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="32" priority="79" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="containsText" dxfId="31" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2751,12 +2880,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="28" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J33))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
+  <conditionalFormatting sqref="J35">
+    <cfRule type="containsText" dxfId="30" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2768,12 +2897,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="containsText" dxfId="27" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
+  <conditionalFormatting sqref="J34">
+    <cfRule type="containsText" dxfId="29" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2785,47 +2914,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="containsText" dxfId="26" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="colorScale" priority="58">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -2837,11 +2932,79 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="27" priority="53" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="26" priority="51" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="containsText" dxfId="25" priority="49" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="containsText" dxfId="24" priority="47" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
     <cfRule type="containsText" dxfId="23" priority="45" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J16))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2853,46 +3016,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="containsText" dxfId="22" priority="43" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J17))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="containsText" dxfId="21" priority="41" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K32))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="containsText" dxfId="20" priority="39" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K34))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J15">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2904,12 +3033,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="19" priority="37" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K35))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K35">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="21" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2921,12 +3050,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="20" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="containsText" dxfId="18" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2938,12 +3101,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+  <conditionalFormatting sqref="K24">
     <cfRule type="containsText" dxfId="17" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J18))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2955,12 +3118,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+  <conditionalFormatting sqref="K26">
     <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J20))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2972,12 +3135,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+  <conditionalFormatting sqref="K27">
     <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J22))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2989,12 +3152,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="K29">
     <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J23))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3006,12 +3169,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+  <conditionalFormatting sqref="K30">
     <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K24))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3023,12 +3186,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+  <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K26))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3040,12 +3203,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+  <conditionalFormatting sqref="J36">
     <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3057,12 +3220,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+  <conditionalFormatting sqref="K36">
     <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3074,12 +3237,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="J37">
     <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3091,12 +3254,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+  <conditionalFormatting sqref="K37">
     <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K31))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3108,12 +3271,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+  <conditionalFormatting sqref="J11">
     <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3125,12 +3288,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K36))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
+  <conditionalFormatting sqref="J38">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3142,12 +3305,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
+  <conditionalFormatting sqref="K38">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3159,12 +3322,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K37))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
+  <conditionalFormatting sqref="J39">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3176,12 +3339,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+  <conditionalFormatting sqref="K39">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54B95A-57E0-49CC-8213-55022BCDE203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE85790-39F9-456B-8B1F-EE7867311FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$I$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -315,21 +318,12 @@
     <t>Obv: Mint director symbol - Aster flower</t>
   </si>
   <si>
-    <t>Subtype_4</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol_A</t>
-  </si>
-  <si>
-    <t>Subtype_2#Mint_Symbol_B</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -352,6 +346,15 @@
   </si>
   <si>
     <t>National Lottery</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
+  </si>
+  <si>
+    <t>Subtype_4#Special_marks_2</t>
+  </si>
+  <si>
+    <t>Subtype_5#Special_distinctions_1</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -688,6 +691,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,38 +726,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -759,6 +733,38 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1053,9 +1059,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1330,62 +1336,62 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="11" customWidth="1"/>
-    <col min="3" max="7" width="24.81640625" style="11" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" style="11" customWidth="1"/>
-    <col min="10" max="11" width="3.81640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="11" customWidth="1"/>
+    <col min="3" max="7" width="33.6328125" style="11" customWidth="1"/>
+    <col min="8" max="9" width="12.6328125" style="11" customWidth="1"/>
+    <col min="10" max="11" width="3.6328125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" style="11" customWidth="1"/>
     <col min="13" max="13" width="14.26953125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34">
+        <v>2</v>
+      </c>
+      <c r="K1" s="35"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33">
-        <v>2</v>
-      </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>19</v>
@@ -1479,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>44</v>
@@ -1587,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>44</v>
@@ -1727,7 +1733,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>6</v>
@@ -1981,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>44</v>
@@ -2438,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>52</v>
@@ -2612,7 +2618,7 @@
         <v>2024</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7" t="s">
@@ -2647,7 +2653,7 @@
         <v>2025</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7" t="s">
@@ -2703,9 +2709,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="C1:G1"/>
@@ -3289,7 +3295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3306,7 +3312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K38))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3323,7 +3329,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J39))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3340,7 +3346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K39))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Belgium/#EURO#Belgium#Commemorative#[2005-present]#UNC%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Belgium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE85790-39F9-456B-8B1F-EE7867311FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C755C126-DDD7-4FC5-8138-E09DB7FD5CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="33150" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -355,6 +358,9 @@
   </si>
   <si>
     <t>Subtype_5#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Circuit de Spa-Francorchamps</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1342,7 @@
       <pane xSplit="12" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2687,21 +2693,31 @@
       <c r="A39" s="19">
         <v>2025</v>
       </c>
-      <c r="B39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="21">
+        <v>155000</v>
+      </c>
       <c r="J39" s="9" t="s">
         <v>3</v>
       </c>
       <c r="K39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="10" t="str">
         <f t="shared" ref="L39" si="5">IF(OR(AND(J39&gt;1,J39&lt;&gt;"-"),AND(K39&gt;1,K39&lt;&gt;"-")),"Can exchange","")</f>
@@ -3376,7 +3392,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
